--- a/tocheck/Perezlistcodigocambio.xlsx
+++ b/tocheck/Perezlistcodigocambio.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -370,35 +370,50 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>Current_genus</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Current_species</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Current_name_author</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Current_subspecies</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>synonyms</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>vouchers</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>sp6curr</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>habit</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
           <t>Current_name</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Current_name_author</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>synonyms</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>sp6curr</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>vouchers</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>habit</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>sp6prior</t>
         </is>
@@ -407,42 +422,47 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Laurales</t>
+          <t>Ericales</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Lauraceae</t>
+          <t>Primulaceae</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Beilschmiedia tovarensis</t>
+          <t>Ardisia</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>(Klotzsch &amp; H. Karst. ex Meisn.) Sachiko Nishida</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>beilpe en bci</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>R. Pérez 1796</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
+          <t>compressa</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Kunth</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>ardicm</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
         <is>
           <t>Freestanding</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>beilpe</t>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>Ardisia compressa</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>ardiop</t>
         </is>
       </c>
     </row>
@@ -459,30 +479,40 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
+          <t>Damburneya</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>umbrosa</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>(Kunth) Trofimov</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Nectandra umbrosa</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>nectum</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>Freestanding</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
           <t>Damburneya umbrosa</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>(Kunth) Trofimov</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Nectandra umbrosa</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>nectum</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>Freestanding</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>nectpu</t>
         </is>
@@ -491,600 +521,396 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Ericales</t>
+          <t>Rosales</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Lecythidaceae</t>
+          <t>Moraceae</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Gustavia brachycarpa</t>
+          <t>Ficus</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Pittier</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>gustbr</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>R. Pérez 1158</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
+          <t>aurea</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Nutt.</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>ficuau</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
         <is>
           <t>Freestanding</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>gusthe</t>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>Ficus aurea</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>ficutr</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Malvales</t>
+          <t>Ericales</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Malvaceae</t>
+          <t>Lecythidaceae</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Quararibea stenophylla</t>
+          <t>Gustavia</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>brachycarpa</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Pittier</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>quara1</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>R. Pérez 2042</t>
-        </is>
-      </c>
       <c r="H5" t="inlineStr">
         <is>
+          <t>R. Pérez 1158 (PMA, SCZ)</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>gustbr</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
           <t>Freestanding</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>quaras</t>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>Gustavia brachycarpa</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>gusthe</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Myrtales</t>
+          <t>Rosales</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Melastomataceae</t>
+          <t>Moraceae</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Miconia affinis</t>
+          <t>Helicostylis</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>DC.</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>micoar</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>R. Pérez 1874</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
+          <t>tovarensis</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>(Klotzsch &amp; H. Karst.) C.C. Berg</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>hel1t1</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
         <is>
           <t>Freestanding</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>micoaf</t>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>Helicostylis tovarensis</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>hel1to</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Sapindales</t>
+          <t>Ericales</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Meliaceae</t>
+          <t>Primulaceae</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Guarea bullata</t>
+          <t>Hymenandra</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Radlk.</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>guarbu</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
+          <t>pittieri</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>(Mez) Pipoly &amp; Ricketson</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Ardisia pittieri</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>hym2pi</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
         <is>
           <t>Freestanding</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>guarsp</t>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>Hymenandra pittieri</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>hymepi</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Rosales</t>
+          <t>Myrtales</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Moraceae</t>
+          <t>Myrtaceae</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Ficus apollinaris</t>
+          <t>Myrcia</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Dugand</t>
+          <t>splendens</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Ficus petenensis</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>ficupo</t>
+          <t>(Sw.) DC.</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Myrcia fallax, Myrcia gatunensis</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
+          <t>R. Pérez 1859 (PMA, SCZ)</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>myrcga</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
           <t>Freestanding</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>ficup1</t>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>Myrcia splendens</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>myrcsp</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Rosales</t>
+          <t>Ericales</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Moraceae</t>
+          <t>Sapotaceae</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Ficus aurea</t>
+          <t>Pouteria</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Nutt.</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>ficoau</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
+          <t>silvestris</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>T.D. Penn.</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>poutsi</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
         <is>
           <t>Freestanding</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>ficutr</t>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>Pouteria silvestris</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>poutsy</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Rosales</t>
+          <t>Arecales</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Moraceae</t>
+          <t>Arecaceae</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Helicostylis tovarensis</t>
+          <t>Prestoea</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>(Klotzsch &amp; H. Karst.) C.C. Berg</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>hel1t1</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
+          <t>decurrens</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>(H. Wendl. ex Burret) H.E. Moore</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>pre1de</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
         <is>
           <t>Freestanding</t>
         </is>
       </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>hel1to</t>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>Prestoea decurrens</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>presde</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Rosales</t>
+          <t>Oxalidales</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Moraceae</t>
+          <t>Elaeocarpaceae</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Sorocea pubivena</t>
+          <t>Sloanea</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Hemsl.</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>sorop1</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
+          <t>medusula</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>K. Schum. &amp; Pittier</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>sloam3</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
         <is>
           <t>Freestanding</t>
         </is>
       </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>soropu</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Myrtales</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Myrtaceae</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Myrcia splendens</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>(Sw.) DC.</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>Myrcia fallax, Myrcia gatunensis</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>myrcga</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>R. Pérez 1859</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>Freestanding</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>myrcsp</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Ericales</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Primulaceae</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Hymenandra pittieri</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>(Mez) Pipoly &amp; Ricketson</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>Ardisia pittieri</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>hym2pi</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>Freestanding</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>hymepi</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Rosales</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Rhamnaceae</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>Ziziphus mauritiana</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>Lam.</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>zizim</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>R. Pérez 1436</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>Freestanding</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>zizima</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Gentianales</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Rubiaceae</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>Isertia haenkeana</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>DC.</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>iserrha</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>Freestanding</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>iserha</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Sapindales</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>Sapindaceae</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>Cupania guatemalensis</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>Radlk.</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>cupasy</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>R. Pérez 1722</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>Freestanding</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>cupagu</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Ericales</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>Sapotaceae</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>Pouteria silvestris</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>T.D. Penn.</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>poutsi</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>Freestanding</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>poutsy</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Laurales</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>Siparunaceae</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>Siparuna thecaphora</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>(Poepp. &amp; Endl.) A. DC.</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>siphte</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>Freestanding</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>sipath</t>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>Sloanea medusula</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>sloam2</t>
         </is>
       </c>
     </row>

--- a/tocheck/Perezlistcodigocambio.xlsx
+++ b/tocheck/Perezlistcodigocambio.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -867,53 +867,6 @@
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Oxalidales</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Elaeocarpaceae</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Sloanea</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>medusula</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>K. Schum. &amp; Pittier</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>sloam3</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>Freestanding</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>Sloanea medusula</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>sloam2</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
